--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839493359722986</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N2">
-        <v>0.839493359722986</v>
+        <v>2.952071</v>
       </c>
       <c r="O2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q2">
-        <v>40.67661173352718</v>
+        <v>88.52275888508879</v>
       </c>
       <c r="R2">
-        <v>40.67661173352718</v>
+        <v>796.704829965799</v>
       </c>
       <c r="S2">
-        <v>0.001012183010420147</v>
+        <v>0.001857523489640386</v>
       </c>
       <c r="T2">
-        <v>0.001012183010420147</v>
+        <v>0.001857523489640386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45263670601819</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N3">
-        <v>2.45263670601819</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q3">
-        <v>118.8394760466231</v>
+        <v>221.3499130811142</v>
       </c>
       <c r="R3">
-        <v>118.8394760466231</v>
+        <v>1992.149217730028</v>
       </c>
       <c r="S3">
-        <v>0.002957161216121613</v>
+        <v>0.00464471135057773</v>
       </c>
       <c r="T3">
-        <v>0.002957161216121613</v>
+        <v>0.004644711350577731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.29428765945227</v>
+        <v>0.36615</v>
       </c>
       <c r="N4">
-        <v>0.29428765945227</v>
+        <v>1.09845</v>
       </c>
       <c r="O4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q4">
-        <v>14.25934430911817</v>
+        <v>32.93885021645001</v>
       </c>
       <c r="R4">
-        <v>14.25934430911817</v>
+        <v>296.4496519480501</v>
       </c>
       <c r="S4">
-        <v>0.0003548246875617801</v>
+        <v>0.0006911746625319927</v>
       </c>
       <c r="T4">
-        <v>0.0003548246875617801</v>
+        <v>0.0006911746625319928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.67509396000577</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N5">
-        <v>6.67509396000577</v>
+        <v>0.379018</v>
       </c>
       <c r="O5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q5">
-        <v>323.4334162995199</v>
+        <v>11.36548512116022</v>
       </c>
       <c r="R5">
-        <v>323.4334162995199</v>
+        <v>102.289366090442</v>
       </c>
       <c r="S5">
-        <v>0.008048207434905079</v>
+        <v>0.0002384884503104837</v>
       </c>
       <c r="T5">
-        <v>0.008048207434905079</v>
+        <v>0.0002384884503104837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3844.36250207129</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H6">
-        <v>3844.36250207129</v>
+        <v>269.879969</v>
       </c>
       <c r="I6">
-        <v>0.981634808235257</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J6">
-        <v>0.981634808235257</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.839493359722986</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N6">
-        <v>0.839493359722986</v>
+        <v>24.188189</v>
       </c>
       <c r="O6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q6">
-        <v>3227.316792856892</v>
+        <v>725.3230774984603</v>
       </c>
       <c r="R6">
-        <v>3227.316792856892</v>
+        <v>6527.907697486142</v>
       </c>
       <c r="S6">
-        <v>0.08030745649055375</v>
+        <v>0.0152198674216715</v>
       </c>
       <c r="T6">
-        <v>0.08030745649055375</v>
+        <v>0.0152198674216715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45263670601819</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N7">
-        <v>2.45263670601819</v>
+        <v>2.952071</v>
       </c>
       <c r="O7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q7">
-        <v>9428.824583819976</v>
+        <v>3795.938561368504</v>
       </c>
       <c r="R7">
-        <v>9428.824583819976</v>
+        <v>34163.44705231654</v>
       </c>
       <c r="S7">
-        <v>0.2346236730457105</v>
+        <v>0.07965234174554679</v>
       </c>
       <c r="T7">
-        <v>0.2346236730457105</v>
+        <v>0.07965234174554681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.29428765945227</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N8">
-        <v>0.29428765945227</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q8">
-        <v>1131.348442820632</v>
+        <v>9491.690964025081</v>
       </c>
       <c r="R8">
-        <v>1131.348442820632</v>
+        <v>85425.21867622573</v>
       </c>
       <c r="S8">
-        <v>0.02815209094086056</v>
+        <v>0.199169559830041</v>
       </c>
       <c r="T8">
-        <v>0.02815209094086056</v>
+        <v>0.1991695598300411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.67509396000577</v>
+        <v>0.36615</v>
       </c>
       <c r="N9">
-        <v>6.67509396000577</v>
+        <v>1.09845</v>
       </c>
       <c r="O9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q9">
-        <v>25661.48091764874</v>
+        <v>1412.4486547699</v>
       </c>
       <c r="R9">
-        <v>25661.48091764874</v>
+        <v>12712.0378929291</v>
       </c>
       <c r="S9">
-        <v>0.6385515877581321</v>
+        <v>0.02963821493127905</v>
       </c>
       <c r="T9">
-        <v>0.6385515877581321</v>
+        <v>0.02963821493127906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J10">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.839493359722986</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N10">
-        <v>0.839493359722986</v>
+        <v>0.379018</v>
       </c>
       <c r="O10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q10">
-        <v>0.1082412913783763</v>
+        <v>487.3626148059337</v>
       </c>
       <c r="R10">
-        <v>0.1082412913783763</v>
+        <v>4386.263533253404</v>
       </c>
       <c r="S10">
-        <v>2.693439583337413E-06</v>
+        <v>0.01022660744396515</v>
       </c>
       <c r="T10">
-        <v>2.693439583337413E-06</v>
+        <v>0.01022660744396515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J11">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.45263670601819</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N11">
-        <v>2.45263670601819</v>
+        <v>24.188189</v>
       </c>
       <c r="O11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q11">
-        <v>0.316234263519389</v>
+        <v>31102.53085199153</v>
       </c>
       <c r="R11">
-        <v>0.316234263519389</v>
+        <v>279922.7776679237</v>
       </c>
       <c r="S11">
-        <v>7.869066158802641E-06</v>
+        <v>0.6526421269792887</v>
       </c>
       <c r="T11">
-        <v>7.869066158802641E-06</v>
+        <v>0.6526421269792888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.29428765945227</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N12">
-        <v>0.29428765945227</v>
+        <v>2.952071</v>
       </c>
       <c r="O12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q12">
-        <v>0.03794440530934594</v>
+        <v>0.1320769685715556</v>
       </c>
       <c r="R12">
-        <v>0.03794440530934594</v>
+        <v>1.188692717144</v>
       </c>
       <c r="S12">
-        <v>9.441957124211443E-07</v>
+        <v>2.77144628852598E-06</v>
       </c>
       <c r="T12">
-        <v>9.441957124211443E-07</v>
+        <v>2.77144628852598E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H13">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.67509396000577</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N13">
-        <v>6.67509396000577</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.6504981102963272</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P13">
-        <v>0.6504981102963272</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q13">
-        <v>0.8606629009447316</v>
+        <v>0.3302566015964444</v>
       </c>
       <c r="R13">
-        <v>0.8606629009447316</v>
+        <v>2.972309414368</v>
       </c>
       <c r="S13">
-        <v>2.141644372304348E-05</v>
+        <v>6.929962450340399E-06</v>
       </c>
       <c r="T13">
-        <v>2.141644372304348E-05</v>
+        <v>6.929962450340401E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H14">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I14">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J14">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.839493359722986</v>
+        <v>0.36615</v>
       </c>
       <c r="N14">
-        <v>0.839493359722986</v>
+        <v>1.09845</v>
       </c>
       <c r="O14">
-        <v>0.0818099111979609</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P14">
-        <v>0.0818099111979609</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q14">
-        <v>19.59431373767685</v>
+        <v>0.04914514120000001</v>
       </c>
       <c r="R14">
-        <v>19.59431373767685</v>
+        <v>0.4423062708000001</v>
       </c>
       <c r="S14">
-        <v>0.0004875782574036635</v>
+        <v>1.031240500527041E-06</v>
       </c>
       <c r="T14">
-        <v>0.0004875782574036635</v>
+        <v>1.031240500527041E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H15">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I15">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J15">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.45263670601819</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N15">
-        <v>2.45263670601819</v>
+        <v>0.379018</v>
       </c>
       <c r="O15">
-        <v>0.2390131962287557</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P15">
-        <v>0.2390131962287557</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q15">
-        <v>57.24611463052037</v>
+        <v>0.01695743377244444</v>
       </c>
       <c r="R15">
-        <v>57.24611463052037</v>
+        <v>0.152616903952</v>
       </c>
       <c r="S15">
-        <v>0.001424492900764832</v>
+        <v>3.558274951329219E-07</v>
       </c>
       <c r="T15">
-        <v>0.001424492900764832</v>
+        <v>3.558274951329219E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.3406417224581</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H16">
-        <v>23.3406417224581</v>
+        <v>0.402664</v>
       </c>
       <c r="I16">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J16">
-        <v>0.005959892270556777</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.29428765945227</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N16">
-        <v>0.29428765945227</v>
+        <v>24.188189</v>
       </c>
       <c r="O16">
-        <v>0.02867878227695617</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P16">
-        <v>0.02867878227695617</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q16">
-        <v>6.868862822616193</v>
+        <v>1.082190326166222</v>
       </c>
       <c r="R16">
-        <v>6.868862822616193</v>
+        <v>9.739712935496001</v>
       </c>
       <c r="S16">
-        <v>0.0001709224528214118</v>
+        <v>2.270821624216183E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001709224528214118</v>
+        <v>2.270821624216184E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.253661</v>
+      </c>
+      <c r="H17">
+        <v>0.760983</v>
+      </c>
+      <c r="I17">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J17">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.952071</v>
+      </c>
+      <c r="O17">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P17">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q17">
+        <v>0.2496084273103333</v>
+      </c>
+      <c r="R17">
+        <v>2.246475845793</v>
+      </c>
+      <c r="S17">
+        <v>5.237675856250783E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.237675856250784E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.253661</v>
+      </c>
+      <c r="H18">
+        <v>0.760983</v>
+      </c>
+      <c r="I18">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J18">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P18">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q18">
+        <v>0.6241423605106666</v>
+      </c>
+      <c r="R18">
+        <v>5.617281244596001</v>
+      </c>
+      <c r="S18">
+        <v>1.309673478470235E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.309673478470235E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.253661</v>
+      </c>
+      <c r="H19">
+        <v>0.760983</v>
+      </c>
+      <c r="I19">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J19">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.36615</v>
+      </c>
+      <c r="N19">
+        <v>1.09845</v>
+      </c>
+      <c r="O19">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P19">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q19">
+        <v>0.09287797515</v>
+      </c>
+      <c r="R19">
+        <v>0.8359017763500001</v>
+      </c>
+      <c r="S19">
+        <v>1.948911474113825E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.948911474113825E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.253661</v>
+      </c>
+      <c r="H20">
+        <v>0.760983</v>
+      </c>
+      <c r="I20">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J20">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.379018</v>
+      </c>
+      <c r="O20">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P20">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q20">
+        <v>0.03204736163266667</v>
+      </c>
+      <c r="R20">
+        <v>0.288426254694</v>
+      </c>
+      <c r="S20">
+        <v>6.724680496114285E-07</v>
+      </c>
+      <c r="T20">
+        <v>6.724680496114286E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.253661</v>
+      </c>
+      <c r="H21">
+        <v>0.760983</v>
+      </c>
+      <c r="I21">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J21">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N21">
+        <v>24.188189</v>
+      </c>
+      <c r="O21">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P21">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q21">
+        <v>2.045200069976334</v>
+      </c>
+      <c r="R21">
+        <v>18.406800629787</v>
+      </c>
+      <c r="S21">
+        <v>4.291559841607156E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.291559841607156E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H22">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I22">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J22">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.952071</v>
+      </c>
+      <c r="O22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q22">
+        <v>23.14197568162189</v>
+      </c>
+      <c r="R22">
+        <v>208.277781134597</v>
+      </c>
+      <c r="S22">
+        <v>0.0004856012619432737</v>
+      </c>
+      <c r="T22">
+        <v>0.0004856012619432737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H23">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I23">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J23">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q23">
+        <v>57.86618458538712</v>
+      </c>
+      <c r="R23">
+        <v>520.7956612684841</v>
+      </c>
+      <c r="S23">
+        <v>0.00121423912310226</v>
+      </c>
+      <c r="T23">
+        <v>0.00121423912310226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H24">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I24">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J24">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.36615</v>
+      </c>
+      <c r="N24">
+        <v>1.09845</v>
+      </c>
+      <c r="O24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q24">
+        <v>8.611006709350002</v>
+      </c>
+      <c r="R24">
+        <v>77.49906038415003</v>
+      </c>
+      <c r="S24">
+        <v>0.0001806896603034239</v>
+      </c>
+      <c r="T24">
+        <v>0.000180689660303424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H17">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I17">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J17">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="N17">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="O17">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="P17">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="Q17">
-        <v>155.8009765842387</v>
-      </c>
-      <c r="R17">
-        <v>155.8009765842387</v>
-      </c>
-      <c r="S17">
-        <v>0.00387689865956687</v>
-      </c>
-      <c r="T17">
-        <v>0.00387689865956687</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H25">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I25">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J25">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.379018</v>
+      </c>
+      <c r="O25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q25">
+        <v>2.971210834325111</v>
+      </c>
+      <c r="R25">
+        <v>26.74089750892601</v>
+      </c>
+      <c r="S25">
+        <v>6.234660992205664E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.234660992205666E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H26">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I26">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J26">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N26">
+        <v>24.188189</v>
+      </c>
+      <c r="O26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q26">
+        <v>189.6168762948026</v>
+      </c>
+      <c r="R26">
+        <v>1706.551886653223</v>
+      </c>
+      <c r="S26">
+        <v>0.003978838958318553</v>
+      </c>
+      <c r="T26">
+        <v>0.003978838958318554</v>
       </c>
     </row>
   </sheetData>
